--- a/person_generator.xlsx
+++ b/person_generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\person-generator\person-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DAA5F1-2B1D-440A-9497-4782331ACA8F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9CCC06-AA99-43D6-B693-B1A0C594AF25}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9990" xr2:uid="{0532160E-D53B-456B-9F30-3F35FB680C00}"/>
   </bookViews>
@@ -7049,7 +7049,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7078,11 +7078,12 @@
         <v>1994</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2017</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
         <v>2016</v>
       </c>
       <c r="C3">

--- a/person_generator.xlsx
+++ b/person_generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\person-generator\person-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E3D86-0FD1-4515-86CE-15F5EA6E09E4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64A3028-62DB-40A7-868C-FBEBBA656D58}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9990" xr2:uid="{0532160E-D53B-456B-9F30-3F35FB680C00}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="2116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="2122">
   <si>
     <t>苗字</t>
   </si>
@@ -5164,10 +5164,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>generators#target</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>generators#~</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6374,10 +6370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>generators#logic.me, numberToGenerate?type=string, instanceTypes#~</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>instanceTypes#condition</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6734,6 +6726,37 @@
   </si>
   <si>
     <t>Generate address. Prefecture, city and town are retrieved from Addresses list and address1 is generated automatically. 50% of the address is for house and the rest is mansion.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>generators#target.type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>generators#logic.me, instanceTypes#~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>generators#target.field, numberToGenerate?type=string, targetType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Person</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6807,7 +6830,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -7092,13 +7115,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7229,6 +7395,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7550,889 +7761,1029 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0F74F8-02BB-4056-B99F-8D10BB8EECC8}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="96.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="96.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="96.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>2017</v>
-      </c>
-      <c r="D1" s="43" t="str">
-        <f>IF(D6&lt;&gt;"","generators#logic."&amp;D6, "")</f>
+        <v>2114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E1" s="43" t="str">
+        <f>IF(E7&lt;&gt;"","generators#logic."&amp;E7, "")</f>
         <v>generators#logic.spouse</v>
       </c>
-      <c r="E1" s="43" t="str">
-        <f>IF(E6&lt;&gt;"","generators#logic."&amp;E6, "")</f>
+      <c r="F1" s="43" t="str">
+        <f>IF(F7&lt;&gt;"","generators#logic."&amp;F7, "")</f>
         <v>generators#logic.child</v>
       </c>
-      <c r="F1" s="43" t="str">
-        <f>IF(F6&lt;&gt;"","generators#logic."&amp;F6, "")</f>
+      <c r="G1" s="43" t="str">
+        <f>IF(G7&lt;&gt;"","generators#logic."&amp;G7, "")</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="7"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="8" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="45" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>2002</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>2001</v>
-      </c>
-      <c r="C3" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="E7" s="19" t="s">
         <v>2004</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F7" s="19" t="s">
         <v>2006</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>2006</v>
-      </c>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>2016</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>2010</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>2003</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>2005</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>2007</v>
-      </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="46" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D8" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>2013</v>
       </c>
-      <c r="C7" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>2014</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>2015</v>
-      </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" s="26" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28" t="str">
-        <f>C9&amp;IF(C9&lt;&gt;"", ", ","")&amp;"_"&amp;C6</f>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="12"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" s="26" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="27"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="str">
+        <f>D10&amp;IF(D10&lt;&gt;"", ", ","")&amp;"_"&amp;D7</f>
         <v>_me</v>
       </c>
-      <c r="E9" s="28" t="str">
-        <f t="shared" ref="E9:F9" si="0">D9&amp;IF(D9&lt;&gt;"", ", ","")&amp;"_"&amp;D6</f>
+      <c r="F10" s="28" t="str">
+        <f t="shared" ref="F10:G10" si="0">E10&amp;IF(E10&lt;&gt;"", ", ","")&amp;"_"&amp;E7</f>
         <v>_me, _spouse</v>
       </c>
-      <c r="F9" s="28" t="str">
+      <c r="G10" s="28" t="str">
         <f t="shared" si="0"/>
         <v>_me, _spouse, _child</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="9" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C10" s="10" t="str">
-        <f>"_this, "&amp;C9&amp;" is available."</f>
+    <row r="11" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="9" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f>"_this, "&amp;D10&amp;" is available."</f>
         <v>_this,  is available.</v>
       </c>
-      <c r="D10" s="10" t="str">
-        <f t="shared" ref="D10:F10" si="1">"_this, "&amp;D9&amp;" is available."</f>
+      <c r="E11" s="10" t="str">
+        <f t="shared" ref="E11:G11" si="1">"_this, "&amp;E10&amp;" is available."</f>
         <v>_this, _me is available.</v>
       </c>
-      <c r="E10" s="10" t="str">
+      <c r="F11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>_this, _me, _spouse is available.</v>
       </c>
-      <c r="F10" s="24" t="str">
+      <c r="G11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>_this, _me, _spouse, _child is available.</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="4" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="1:7" ht="4" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="4"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>1617</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="D13" s="32" t="s">
         <v>1638</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="E13" s="32" t="s">
         <v>1638</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="F13" s="32" t="s">
         <v>1638</v>
       </c>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="17" t="s">
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>1622</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="D14" s="34" t="s">
         <v>1649</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="E14" s="35" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="35" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>1990</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="F16" s="35" t="s">
         <v>1990</v>
       </c>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="17"/>
-      <c r="C14" s="35" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="17" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D15" s="35" t="s">
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>1991</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="F17" s="35" t="s">
         <v>1991</v>
       </c>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="17" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D16" s="35" t="s">
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>1992</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>1992</v>
-      </c>
-      <c r="F16" s="36"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="17" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C17" s="35" t="s">
+      <c r="F18" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>1993</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F17" s="36"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="17" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C18" s="35" t="s">
+      <c r="F19" s="35" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D20" s="35" t="s">
         <v>1928</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="E20" s="35" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="35" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>1919</v>
+      </c>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="35" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G30" s="36"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E36" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>1994</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>2113</v>
-      </c>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="17" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>1929</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>1929</v>
-      </c>
-      <c r="F19" s="36"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="17"/>
-      <c r="C20" s="35" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>1920</v>
-      </c>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="17" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>1651</v>
-      </c>
-      <c r="F21" s="36"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="17" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F22" s="36"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="17" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>1921</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>1921</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>1921</v>
-      </c>
-      <c r="F23" s="36"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="17" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>1662</v>
-      </c>
-      <c r="F24" s="36"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="17" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>1659</v>
-      </c>
-      <c r="F25" s="36"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="17"/>
-      <c r="C26" s="35" t="s">
-        <v>2110</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>2111</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>2112</v>
-      </c>
-      <c r="F26" s="36"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="17" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>1609</v>
-      </c>
-      <c r="F27" s="36"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="17" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>1858</v>
-      </c>
-      <c r="F28" s="36"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="17" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F29" s="36"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="17" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>1859</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>1859</v>
-      </c>
-      <c r="F30" s="36"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="17" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F31" s="36"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="17" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>1860</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F32" s="36"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="17" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>1612</v>
-      </c>
-      <c r="F33" s="36"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="17" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F34" s="36"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="17" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D35" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>2000</v>
-      </c>
-      <c r="F35" s="36"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="17" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C36" s="35" t="s">
+      <c r="F37" s="35" t="s">
         <v>1668</v>
       </c>
-      <c r="D36" s="35" t="s">
-        <v>1995</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>1668</v>
-      </c>
-      <c r="F36" s="36"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="17" t="s">
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C38" s="52" t="s">
         <v>1620</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>1996</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>1998</v>
-      </c>
-      <c r="F37" s="36"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="17" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>1999</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>1997</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>1999</v>
-      </c>
-      <c r="F38" s="36"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1995</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C40" s="52" t="s">
         <v>1669</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="D40" s="34" t="s">
         <v>1670</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="E40" s="34" t="s">
         <v>1670</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="F40" s="34" t="s">
         <v>1670</v>
       </c>
-      <c r="F39" s="37"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="17"/>
-      <c r="C40" s="34" t="s">
+      <c r="G40" s="37"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="34" t="s">
         <v>1679</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="E41" s="34" t="s">
         <v>1679</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="F41" s="34" t="s">
         <v>1679</v>
       </c>
-      <c r="F40" s="37"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="17" t="s">
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C42" s="52" t="s">
         <v>1673</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="D42" s="35" t="s">
         <v>1680</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="E42" s="35" t="s">
         <v>1680</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="F42" s="35" t="s">
         <v>1680</v>
       </c>
-      <c r="F41" s="36"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="17" t="s">
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C43" s="52" t="s">
         <v>1674</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="D43" s="35" t="s">
         <v>1681</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="E43" s="35" t="s">
         <v>1681</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="F43" s="35" t="s">
         <v>1681</v>
       </c>
-      <c r="F42" s="36"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="17" t="s">
+      <c r="G43" s="36"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C44" s="52" t="s">
         <v>1675</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="D44" s="35" t="s">
         <v>1676</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="E44" s="35" t="s">
         <v>1676</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="F44" s="35" t="s">
         <v>1676</v>
       </c>
-      <c r="F43" s="36"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="17" t="s">
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C45" s="52" t="s">
         <v>1672</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="D45" s="34" t="s">
         <v>1671</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="E45" s="34" t="s">
         <v>1671</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="F45" s="34" t="s">
         <v>1671</v>
       </c>
-      <c r="F44" s="37"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="17" t="s">
+      <c r="G45" s="37"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C46" s="52" t="s">
         <v>1678</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="D46" s="35" t="s">
         <v>1677</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="E46" s="35" t="s">
         <v>1677</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="F46" s="35" t="s">
         <v>1677</v>
       </c>
-      <c r="F45" s="36"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="17"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35" t="s">
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C47" s="52"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G47" s="36"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35" t="s">
         <v>2019</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="F48" s="35" t="s">
         <v>2020</v>
       </c>
-      <c r="F46" s="36"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="17"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>2022</v>
-      </c>
-      <c r="F47" s="36"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="29"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="35" t="s">
-        <v>2061</v>
-      </c>
-      <c r="F48" s="39"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="29"/>
-      <c r="C49" s="38"/>
+      <c r="G48" s="36"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="29" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C49" s="53"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="35" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F49" s="39"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="29"/>
-      <c r="C50" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="35" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G49" s="39"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="29" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C50" s="53"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
-    </row>
-    <row r="51" spans="2:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B51" s="18"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="42" t="s">
+      <c r="F50" s="35" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G50" s="39"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="29"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
+    </row>
+    <row r="52" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B52" s="18"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" s="42" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D56" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="15" t="s">
         <v>2023</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" s="14" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" t="s">
         <v>2028</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C56" s="15" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C57" s="14" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" t="s">
-        <v>2008</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2114</v>
-      </c>
-      <c r="D63" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C64" t="s">
+      <c r="E65" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" t="s">
         <v>2030</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E67" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C65" t="s">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" t="s">
         <v>2031</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E69" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" t="s">
         <v>2038</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C66" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E70" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C67" t="s">
-        <v>2034</v>
-      </c>
-      <c r="D67" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C68" t="s">
-        <v>2033</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C69" t="s">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" t="s">
         <v>2040</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E72" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C70" t="s">
-        <v>2029</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E73" t="s">
         <v>2044</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C71" t="s">
-        <v>2042</v>
-      </c>
-      <c r="D71" t="s">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C72" t="s">
-        <v>2043</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E74" t="s">
         <v>2046</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C73" t="s">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" t="s">
         <v>2047</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E75" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" t="s">
         <v>2048</v>
       </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C74" t="s">
-        <v>2049</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E76" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E77" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C75" t="s">
-        <v>2050</v>
-      </c>
-      <c r="D75" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C76" t="s">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" t="s">
         <v>2052</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E78" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C77" t="s">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" t="s">
         <v>2054</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E79" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C78" t="s">
-        <v>2056</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E80" t="s">
         <v>2058</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C79" t="s">
-        <v>2057</v>
-      </c>
-      <c r="D79" t="s">
-        <v>2060</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="C64:C79">
-    <sortCondition ref="C64:C79"/>
+  <sortState ref="D65:D80">
+    <sortCondition ref="D65:D80"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8454,786 +8805,786 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D1" t="s">
         <v>1906</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1907</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1908</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1909</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1910</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1911</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1912</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1913</v>
       </c>
-      <c r="K1" t="s">
-        <v>1914</v>
-      </c>
       <c r="O1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="P1" t="s">
         <v>2063</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2065</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="O3" t="s">
         <v>2064</v>
       </c>
-      <c r="C3" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1916</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1915</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1918</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1919</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2066</v>
-      </c>
       <c r="P3" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D4" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="J4" t="s">
         <v>1917</v>
       </c>
-      <c r="E4" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1950</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1951</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>1918</v>
       </c>
-      <c r="K4" t="s">
-        <v>1919</v>
-      </c>
       <c r="O4" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="P4" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D5" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="J5" t="s">
         <v>1917</v>
       </c>
-      <c r="E5" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1952</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1953</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>1918</v>
       </c>
-      <c r="K5" t="s">
-        <v>1919</v>
-      </c>
       <c r="O5" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="P5" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D6" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1954</v>
+      </c>
+      <c r="J6" t="s">
         <v>1917</v>
       </c>
-      <c r="E6" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1954</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1955</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>1918</v>
       </c>
-      <c r="K6" t="s">
-        <v>1919</v>
-      </c>
       <c r="O6" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="P6" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D7" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1956</v>
+      </c>
+      <c r="J7" t="s">
         <v>1917</v>
       </c>
-      <c r="E7" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1956</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1957</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>1918</v>
       </c>
-      <c r="K7" t="s">
-        <v>1919</v>
-      </c>
       <c r="O7" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="P7" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D8" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J8" t="s">
         <v>1917</v>
       </c>
-      <c r="E8" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1958</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1959</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>1918</v>
       </c>
-      <c r="K8" t="s">
-        <v>1919</v>
-      </c>
       <c r="O8" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="P8" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D9" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1959</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1960</v>
+      </c>
+      <c r="J9" t="s">
         <v>1917</v>
       </c>
-      <c r="E9" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1960</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1961</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>1918</v>
       </c>
-      <c r="K9" t="s">
-        <v>1919</v>
-      </c>
       <c r="O9" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="P9" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D10" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1962</v>
+      </c>
+      <c r="J10" t="s">
         <v>1917</v>
       </c>
-      <c r="E10" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1962</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1963</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>1918</v>
       </c>
-      <c r="K10" t="s">
-        <v>1919</v>
-      </c>
       <c r="O10" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="P10" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D11" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J11" t="s">
         <v>1917</v>
       </c>
-      <c r="E11" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1964</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1965</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>1918</v>
       </c>
-      <c r="K11" t="s">
-        <v>1919</v>
-      </c>
       <c r="O11" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="P11" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D12" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1966</v>
+      </c>
+      <c r="J12" t="s">
         <v>1917</v>
       </c>
-      <c r="E12" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1966</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1967</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>1918</v>
       </c>
-      <c r="K12" t="s">
-        <v>1919</v>
-      </c>
       <c r="O12" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="P12" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D13" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1967</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="J13" t="s">
         <v>1917</v>
       </c>
-      <c r="E13" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1968</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1969</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>1918</v>
       </c>
-      <c r="K13" t="s">
-        <v>1919</v>
-      </c>
       <c r="O13" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="P13" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D14" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J14" t="s">
         <v>1917</v>
       </c>
-      <c r="E14" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1970</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1971</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>1918</v>
       </c>
-      <c r="K14" t="s">
-        <v>1919</v>
-      </c>
       <c r="O14" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="P14" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D15" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1971</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1972</v>
+      </c>
+      <c r="J15" t="s">
         <v>1917</v>
       </c>
-      <c r="E15" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1972</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1973</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>1918</v>
       </c>
-      <c r="K15" t="s">
-        <v>1919</v>
-      </c>
       <c r="O15" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="P15" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D16" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J16" t="s">
         <v>1917</v>
       </c>
-      <c r="E16" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1975</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>1918</v>
       </c>
-      <c r="K16" t="s">
-        <v>1919</v>
-      </c>
       <c r="O16" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="P16" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D17" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1976</v>
+      </c>
+      <c r="J17" t="s">
         <v>1917</v>
       </c>
-      <c r="E17" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1976</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1977</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>1918</v>
       </c>
-      <c r="K17" t="s">
-        <v>1919</v>
-      </c>
       <c r="O17" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="P17" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D18" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1977</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1978</v>
+      </c>
+      <c r="J18" t="s">
         <v>1917</v>
       </c>
-      <c r="E18" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1978</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1979</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>1918</v>
       </c>
-      <c r="K18" t="s">
-        <v>1919</v>
-      </c>
       <c r="O18" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="P18" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D19" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1980</v>
+      </c>
+      <c r="J19" t="s">
         <v>1917</v>
       </c>
-      <c r="E19" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1980</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1981</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>1918</v>
       </c>
-      <c r="K19" t="s">
-        <v>1919</v>
-      </c>
       <c r="O19" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="P19" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D20" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J20" t="s">
         <v>1917</v>
       </c>
-      <c r="E20" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1982</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1983</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>1918</v>
       </c>
-      <c r="K20" t="s">
-        <v>1919</v>
-      </c>
       <c r="O20" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="P20" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D21" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J21" t="s">
         <v>1917</v>
       </c>
-      <c r="E21" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1984</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1985</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>1918</v>
       </c>
-      <c r="K21" t="s">
-        <v>1919</v>
-      </c>
       <c r="O21" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="P21" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D22" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J22" t="s">
         <v>1917</v>
       </c>
-      <c r="E22" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1986</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1987</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>1918</v>
       </c>
-      <c r="K22" t="s">
-        <v>1919</v>
-      </c>
       <c r="O22" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="P22" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D23" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="J23" t="s">
         <v>1917</v>
       </c>
-      <c r="E23" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1988</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1989</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>1918</v>
       </c>
-      <c r="K23" t="s">
-        <v>1919</v>
-      </c>
       <c r="O23" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="P23" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="O24" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="P24" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
     </row>
   </sheetData>
@@ -9262,7 +9613,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B1" t="s">
         <v>1623</v>
@@ -17279,7 +17630,7 @@
         <v>17733</v>
       </c>
       <c r="D310" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="E310" t="s">
         <v>1646</v>
@@ -20539,7 +20890,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C1" t="s">
         <v>1639</v>
@@ -20652,28 +21003,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C3" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
   </sheetData>
@@ -20705,1278 +21056,1278 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1684</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>1689</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>1691</v>
-      </c>
       <c r="I4" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>1826</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1827</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>1693</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>1695</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>1697</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>1699</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>1702</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>1704</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="K11" s="3"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>1387</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="K12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>1707</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="K13" s="3"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>1709</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="K14" s="3"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>1711</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="K15" s="3"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>1597</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="K16" s="3"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>1327</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="K17" s="3"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>1593</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="K18" s="3"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>1716</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="K19" s="3"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>1718</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="K20" s="3"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>1720</v>
-      </c>
       <c r="I21" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="K21" s="3"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>1722</v>
-      </c>
       <c r="I22" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="K22" s="3"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>1724</v>
-      </c>
       <c r="I23" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="K23" s="3"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>1726</v>
-      </c>
       <c r="I24" s="3" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K24" s="3"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>1727</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>1728</v>
-      </c>
       <c r="I25" s="3" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="K25" s="3"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>1730</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="K26" s="3"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>1732</v>
-      </c>
       <c r="I27" s="3" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="K27" s="3"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>1733</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>1734</v>
-      </c>
       <c r="I28" s="3" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K28" s="3"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>1736</v>
-      </c>
       <c r="I29" s="3" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="K29" s="3"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="K30" s="3"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>1738</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>1739</v>
-      </c>
       <c r="I31" s="3" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="K31" s="3"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>1741</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K32" s="3"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>1742</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>1743</v>
-      </c>
       <c r="I33" s="3" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="K33" s="3"/>
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>1744</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>1745</v>
-      </c>
       <c r="I34" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="K34" s="3"/>
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>1747</v>
-      </c>
       <c r="I35" s="3" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="K35" s="3"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>1749</v>
-      </c>
       <c r="I36" s="3" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K36" s="3"/>
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>1750</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>1751</v>
-      </c>
       <c r="I37" s="3" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="K37" s="3"/>
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>1753</v>
-      </c>
       <c r="I38" s="3" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K38" s="3"/>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>1755</v>
-      </c>
       <c r="I39" s="3" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="K39" s="3"/>
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>1756</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>1757</v>
-      </c>
       <c r="I40" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="K40" s="3"/>
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>1759</v>
-      </c>
       <c r="I41" s="3" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="K41" s="3"/>
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>1760</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>1761</v>
-      </c>
       <c r="I42" s="3" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="K42" s="3"/>
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>1689</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>1763</v>
-      </c>
       <c r="I43" s="3" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="K43" s="3"/>
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>1765</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>1768</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>1769</v>
       </c>
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>1765</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>1770</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>1772</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1773</v>
       </c>
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>1765</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>1776</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>1777</v>
       </c>
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>1765</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H47" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>1780</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>1781</v>
       </c>
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>1765</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>1784</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>1785</v>
       </c>
       <c r="M48" s="3"/>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>1765</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="H49" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>1788</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>1789</v>
       </c>
       <c r="M49" s="3"/>
     </row>

--- a/person_generator.xlsx
+++ b/person_generator.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\person-generator\person-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64A3028-62DB-40A7-868C-FBEBBA656D58}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E5923C-159A-4EEC-9835-F465755ECD1A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9990" xr2:uid="{0532160E-D53B-456B-9F30-3F35FB680C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="4" r:id="rId1"/>
-    <sheet name="Addresses" sheetId="7" r:id="rId2"/>
-    <sheet name="Names" sheetId="1" r:id="rId3"/>
-    <sheet name="Typelists" sheetId="5" r:id="rId4"/>
-    <sheet name="Emails" sheetId="8" r:id="rId5"/>
-    <sheet name="Banks" sheetId="6" r:id="rId6"/>
+    <sheet name="Object_2" sheetId="9" r:id="rId2"/>
+    <sheet name="Addresses" sheetId="7" r:id="rId3"/>
+    <sheet name="Names" sheetId="1" r:id="rId4"/>
+    <sheet name="Typelists" sheetId="5" r:id="rId5"/>
+    <sheet name="Emails" sheetId="8" r:id="rId6"/>
+    <sheet name="Banks" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="2122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="2136">
   <si>
     <t>苗字</t>
   </si>
@@ -6758,6 +6759,54 @@
   <si>
     <t>Person</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>generators#target.field</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>generators#logic.main, instanceTypes#~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>instanceTypes#type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address = generateGet('Address', 'main')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prefecture</t>
+  </si>
+  <si>
+    <t>prefectureKanji</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>cityKanji</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>townKanji</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address1Kanji</t>
   </si>
 </sst>
 </file>
@@ -7761,13 +7810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0F74F8-02BB-4056-B99F-8D10BB8EECC8}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7795,15 +7844,15 @@
         <v>2118</v>
       </c>
       <c r="E1" s="43" t="str">
-        <f>IF(E7&lt;&gt;"","generators#logic."&amp;E7, "")</f>
+        <f>IF(E8&lt;&gt;"","generators#logic."&amp;E8, "")</f>
         <v>generators#logic.spouse</v>
       </c>
       <c r="F1" s="43" t="str">
-        <f>IF(F7&lt;&gt;"","generators#logic."&amp;F7, "")</f>
+        <f>IF(F8&lt;&gt;"","generators#logic."&amp;F8, "")</f>
         <v>generators#logic.child</v>
       </c>
       <c r="G1" s="43" t="str">
-        <f>IF(G7&lt;&gt;"","generators#logic."&amp;G7, "")</f>
+        <f>IF(G8&lt;&gt;"","generators#logic."&amp;G8, "")</f>
         <v/>
       </c>
     </row>
@@ -7847,166 +7896,167 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>2015</v>
+        <v>2126</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="45" t="s">
-        <v>2009</v>
+        <v>2115</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>2002</v>
+        <v>2121</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>2004</v>
+        <v>2120</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>2006</v>
+        <v>2120</v>
       </c>
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="45" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>2016</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="46" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="46" t="s">
         <v>2012</v>
       </c>
-      <c r="D8" s="30" t="b">
+      <c r="D9" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>2013</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>2014</v>
       </c>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="12"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" s="26" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="27"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="str">
-        <f>D10&amp;IF(D10&lt;&gt;"", ", ","")&amp;"_"&amp;D7</f>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="12"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" s="26" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="27"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="str">
+        <f>D11&amp;IF(D11&lt;&gt;"", ", ","")&amp;"_"&amp;D8</f>
         <v>_me</v>
       </c>
-      <c r="F10" s="28" t="str">
-        <f t="shared" ref="F10:G10" si="0">E10&amp;IF(E10&lt;&gt;"", ", ","")&amp;"_"&amp;E7</f>
+      <c r="F11" s="28" t="str">
+        <f t="shared" ref="F11:G11" si="0">E11&amp;IF(E11&lt;&gt;"", ", ","")&amp;"_"&amp;E8</f>
         <v>_me, _spouse</v>
       </c>
-      <c r="G10" s="28" t="str">
+      <c r="G11" s="28" t="str">
         <f t="shared" si="0"/>
         <v>_me, _spouse, _child</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="9" t="s">
+    <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="9" t="s">
         <v>2115</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C12" s="49" t="s">
         <v>2010</v>
       </c>
-      <c r="D11" s="10" t="str">
-        <f>"_this, "&amp;D10&amp;" is available."</f>
+      <c r="D12" s="10" t="str">
+        <f>"_this, "&amp;D11&amp;" is available."</f>
         <v>_this,  is available.</v>
       </c>
-      <c r="E11" s="10" t="str">
-        <f t="shared" ref="E11:G11" si="1">"_this, "&amp;E10&amp;" is available."</f>
+      <c r="E12" s="10" t="str">
+        <f t="shared" ref="E12:G12" si="1">"_this, "&amp;E11&amp;" is available."</f>
         <v>_this, _me is available.</v>
       </c>
-      <c r="F11" s="10" t="str">
+      <c r="F12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>_this, _me, _spouse is available.</v>
       </c>
-      <c r="G11" s="24" t="str">
+      <c r="G12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>_this, _me, _spouse, _child is available.</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="4" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="4"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" ht="4" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="4"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>1682</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>2120</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C14" s="51" t="s">
         <v>1617</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D14" s="32" t="s">
         <v>1638</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E14" s="32" t="s">
         <v>1638</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F14" s="32" t="s">
         <v>1638</v>
       </c>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="17" t="s">
-        <v>2120</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>1989</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="17" t="s">
         <v>2120</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="35" t="s">
-        <v>1650</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="52" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>1989</v>
+      </c>
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="17" t="s">
         <v>2120</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>1605</v>
-      </c>
+      <c r="C16" s="52"/>
       <c r="D16" s="35" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>1990</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>1990</v>
-      </c>
+        <v>1650</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -8014,16 +8064,16 @@
         <v>2120</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G17" s="36"/>
     </row>
@@ -8032,16 +8082,16 @@
         <v>2120</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>1653</v>
+        <v>1630</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>1653</v>
+        <v>1991</v>
       </c>
       <c r="G18" s="36"/>
     </row>
@@ -8050,16 +8100,16 @@
         <v>2120</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>1926</v>
+        <v>1616</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>1927</v>
+        <v>1653</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>2111</v>
+        <v>1653</v>
       </c>
       <c r="G19" s="36"/>
     </row>
@@ -8068,16 +8118,16 @@
         <v>2120</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>1615</v>
+        <v>1926</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>1928</v>
+        <v>1993</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>1928</v>
+        <v>2111</v>
       </c>
       <c r="G20" s="36"/>
     </row>
@@ -8085,15 +8135,17 @@
       <c r="B21" s="17" t="s">
         <v>2120</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="52" t="s">
+        <v>1615</v>
+      </c>
       <c r="D21" s="35" t="s">
-        <v>1919</v>
+        <v>1928</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>1919</v>
+        <v>1928</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>1919</v>
+        <v>1928</v>
       </c>
       <c r="G21" s="36"/>
     </row>
@@ -8101,17 +8153,15 @@
       <c r="B22" s="17" t="s">
         <v>2120</v>
       </c>
-      <c r="C22" s="52" t="s">
-        <v>1607</v>
-      </c>
+      <c r="C22" s="52"/>
       <c r="D22" s="35" t="s">
-        <v>1651</v>
+        <v>1919</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>1651</v>
+        <v>1919</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>1651</v>
+        <v>1919</v>
       </c>
       <c r="G22" s="36"/>
     </row>
@@ -8120,16 +8170,16 @@
         <v>2120</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G23" s="36"/>
     </row>
@@ -8138,16 +8188,16 @@
         <v>2120</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>1920</v>
+        <v>1652</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>1920</v>
+        <v>1652</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>1920</v>
+        <v>1652</v>
       </c>
       <c r="G24" s="36"/>
     </row>
@@ -8156,16 +8206,16 @@
         <v>2120</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>1654</v>
+        <v>1613</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>1662</v>
+        <v>1920</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>1662</v>
+        <v>1920</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>1662</v>
+        <v>1920</v>
       </c>
       <c r="G25" s="36"/>
     </row>
@@ -8174,16 +8224,16 @@
         <v>2120</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>1614</v>
+        <v>1654</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="G26" s="36"/>
     </row>
@@ -8191,15 +8241,17 @@
       <c r="B27" s="17" t="s">
         <v>2120</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="52" t="s">
+        <v>1614</v>
+      </c>
       <c r="D27" s="35" t="s">
-        <v>2108</v>
+        <v>1659</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>2109</v>
+        <v>1659</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>2110</v>
+        <v>1659</v>
       </c>
       <c r="G27" s="36"/>
     </row>
@@ -8207,17 +8259,15 @@
       <c r="B28" s="17" t="s">
         <v>2120</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>1609</v>
-      </c>
+      <c r="C28" s="52"/>
       <c r="D28" s="35" t="s">
-        <v>1609</v>
+        <v>2127</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>1609</v>
+        <v>2109</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>1609</v>
+        <v>2110</v>
       </c>
       <c r="G28" s="36"/>
     </row>
@@ -8226,16 +8276,16 @@
         <v>2120</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>1857</v>
+        <v>1609</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>1857</v>
+        <v>1609</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>1857</v>
+        <v>1609</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>1857</v>
+        <v>1609</v>
       </c>
       <c r="G29" s="36"/>
     </row>
@@ -8244,16 +8294,16 @@
         <v>2120</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>1610</v>
+        <v>1857</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>1610</v>
+        <v>1857</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>1610</v>
+        <v>1857</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>1610</v>
+        <v>1857</v>
       </c>
       <c r="G30" s="36"/>
     </row>
@@ -8262,16 +8312,16 @@
         <v>2120</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>1858</v>
+        <v>1610</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>1858</v>
+        <v>1610</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>1858</v>
+        <v>1610</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>1858</v>
+        <v>1610</v>
       </c>
       <c r="G31" s="36"/>
     </row>
@@ -8280,16 +8330,16 @@
         <v>2120</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>1611</v>
+        <v>1858</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>1611</v>
+        <v>1858</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>1611</v>
+        <v>1858</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>1611</v>
+        <v>1858</v>
       </c>
       <c r="G32" s="36"/>
     </row>
@@ -8298,16 +8348,16 @@
         <v>2120</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>1859</v>
+        <v>1611</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>1859</v>
+        <v>1611</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>1859</v>
+        <v>1611</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>1859</v>
+        <v>1611</v>
       </c>
       <c r="G33" s="36"/>
     </row>
@@ -8316,16 +8366,16 @@
         <v>2120</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>1612</v>
+        <v>1859</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>1612</v>
+        <v>1859</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>1612</v>
+        <v>1859</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>1612</v>
+        <v>1859</v>
       </c>
       <c r="G34" s="36"/>
     </row>
@@ -8334,16 +8384,16 @@
         <v>2120</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>1860</v>
+        <v>1612</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>1860</v>
+        <v>1612</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>1860</v>
+        <v>1612</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>1860</v>
+        <v>1612</v>
       </c>
       <c r="G35" s="36"/>
     </row>
@@ -8352,16 +8402,16 @@
         <v>2120</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>1618</v>
+        <v>1860</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E36" s="35" t="b">
-        <v>1</v>
+        <v>1860</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>1860</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>1999</v>
+        <v>1860</v>
       </c>
       <c r="G36" s="36"/>
     </row>
@@ -8370,16 +8420,16 @@
         <v>2120</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>1994</v>
+        <v>1667</v>
+      </c>
+      <c r="E37" s="35" t="b">
+        <v>1</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>1668</v>
+        <v>1999</v>
       </c>
       <c r="G37" s="36"/>
     </row>
@@ -8388,16 +8438,16 @@
         <v>2120</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>1997</v>
+        <v>1668</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>1997</v>
+        <v>1668</v>
       </c>
       <c r="G38" s="36"/>
     </row>
@@ -8406,16 +8456,16 @@
         <v>2120</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G39" s="36"/>
     </row>
@@ -8424,32 +8474,34 @@
         <v>2120</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>1670</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>1670</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>1670</v>
-      </c>
-      <c r="G40" s="37"/>
+        <v>1621</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="17" t="s">
         <v>2120</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="52" t="s">
+        <v>1669</v>
+      </c>
       <c r="D41" s="34" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="G41" s="37"/>
     </row>
@@ -8457,35 +8509,33 @@
       <c r="B42" s="17" t="s">
         <v>2120</v>
       </c>
-      <c r="C42" s="52" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>1680</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>1680</v>
-      </c>
-      <c r="G42" s="36"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="34" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G42" s="37"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="17" t="s">
         <v>2120</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G43" s="36"/>
     </row>
@@ -8494,16 +8544,16 @@
         <v>2120</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="G44" s="36"/>
     </row>
@@ -8512,48 +8562,52 @@
         <v>2120</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>1671</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>1671</v>
-      </c>
-      <c r="G45" s="37"/>
+        <v>1675</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="17" t="s">
         <v>2120</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>1677</v>
-      </c>
-      <c r="G46" s="36"/>
+        <v>1672</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G46" s="37"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="17" t="s">
         <v>2120</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="35"/>
+      <c r="C47" s="52" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>1677</v>
+      </c>
       <c r="E47" s="35" t="s">
-        <v>2017</v>
+        <v>1677</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>2018</v>
+        <v>1677</v>
       </c>
       <c r="G47" s="36"/>
     </row>
@@ -8564,24 +8618,26 @@
       <c r="C48" s="52"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G48" s="36"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35" t="s">
         <v>2019</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F49" s="35" t="s">
         <v>2020</v>
       </c>
-      <c r="G48" s="36"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="29" t="s">
-        <v>2120</v>
-      </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="35" t="s">
-        <v>2059</v>
-      </c>
-      <c r="G49" s="39"/>
+      <c r="G49" s="36"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="29" t="s">
@@ -8591,199 +8647,211 @@
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
       <c r="F50" s="35" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="G50" s="39"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="29"/>
+      <c r="B51" s="29" t="s">
+        <v>2120</v>
+      </c>
       <c r="C51" s="53"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
+      <c r="F51" s="35" t="s">
+        <v>2060</v>
+      </c>
       <c r="G51" s="39"/>
     </row>
-    <row r="52" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="18"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="41"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" s="42" t="s">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="29"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
+    </row>
+    <row r="53" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B53" s="18"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="41"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" s="42" t="s">
         <v>2024</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C56" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" t="s">
         <v>2021</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D57" s="15" t="s">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" s="15" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D58" s="14" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59" s="14" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" t="s">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
         <v>2007</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>2008</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C64" t="s">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
         <v>2011</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>2112</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>2113</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D65" t="s">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" t="s">
         <v>2028</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>2035</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D66" t="s">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" t="s">
         <v>2029</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D67" t="s">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" t="s">
         <v>2030</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D68" t="s">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" t="s">
         <v>2032</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>2033</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D69" t="s">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" t="s">
         <v>2031</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>2034</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D70" t="s">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" t="s">
         <v>2038</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D71" t="s">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" t="s">
         <v>2027</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>2042</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D72" t="s">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" t="s">
         <v>2040</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>2043</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D73" t="s">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" t="s">
         <v>2041</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>2044</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D74" t="s">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" t="s">
         <v>2045</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>2046</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D75" t="s">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" t="s">
         <v>2047</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D76" t="s">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" t="s">
         <v>2048</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>2057</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D77" t="s">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" t="s">
         <v>2050</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D78" t="s">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" t="s">
         <v>2052</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D79" t="s">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" t="s">
         <v>2054</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>2056</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D80" t="s">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" t="s">
         <v>2055</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>2058</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D65:D80">
-    <sortCondition ref="D65:D80"/>
+  <sortState ref="D66:D81">
+    <sortCondition ref="D66:D81"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8792,6 +8860,707 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F654A5F-2392-40D6-99D0-E985649117D3}">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="96.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E1" s="43" t="str">
+        <f>IF(E5&lt;&gt;"","generators#logic."&amp;E5, "")</f>
+        <v/>
+      </c>
+      <c r="F1" s="43" t="str">
+        <f>IF(F5&lt;&gt;"","generators#logic."&amp;F5, "")</f>
+        <v/>
+      </c>
+      <c r="G1" s="43" t="str">
+        <f>IF(G5&lt;&gt;"","generators#logic."&amp;G5, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="7"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="8" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="45" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="45" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="46" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D6" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="12"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" s="26" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="27"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="str">
+        <f t="shared" ref="G8" si="0">F8&amp;IF(F8&lt;&gt;"", ", ","")&amp;"_"&amp;F5</f>
+        <v>_</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="9" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f>"_this, "&amp;D8&amp;" is available."</f>
+        <v>_this,  is available.</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="24" t="str">
+        <f t="shared" ref="G9" si="1">"_this, "&amp;G8&amp;" is available."</f>
+        <v>_this, _ is available.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="4" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="4"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="35" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="17"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="17"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="17"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="17"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="17"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="17"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="17"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="17"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="17"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="17"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="17"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="17"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="17"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="17"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="17"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="17"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="17"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="17"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="17"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="37"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="17"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="37"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="17"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="17"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="17"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="17"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="37"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="17"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="17"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="17"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="29"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="39"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="29"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="39"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="29"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39"/>
+    </row>
+    <row r="50" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B50" s="18"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" s="42" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" s="15" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" s="14" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEB930B-E3AF-470E-89D1-A21E14863E48}">
   <dimension ref="A1:P24"/>
   <sheetViews>
@@ -9593,7 +10362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0705927-91E0-4A47-898F-79DE3BA26413}">
   <dimension ref="A1:J503"/>
   <sheetViews>
@@ -20873,7 +21642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087EA8EF-7B0A-4B5E-8307-D7C620F4DDFA}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -20988,7 +21757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FCEA87-35FA-491A-979D-BF0C24DEC17C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -21033,7 +21802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730718EB-DBE7-4085-866F-85F1F5C71283}">
   <dimension ref="A1:M49"/>
   <sheetViews>
